--- a/脚本/result-0713.xlsx
+++ b/脚本/result-0713.xlsx
@@ -165,7 +165,7 @@
                                 distinct  PHONENUM,
                                 case when length(nvl(PHONENUM,''))=11             
                                     THEN 
-                                    case when nvl(PHONENUM,'') REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9]|(19[0-9])))\d{8}$" =FALSE
+                                    case when translate(nvl(PHONENUM,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -187,7 +187,7 @@
                                 distinct  APPLICANT_PHONE,
                                 case when LENGTH(APPLICANT_PHONE)=11             
                                     THEN 
-                                    case when APPLICANT_PHONE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9]|(19[0-9])))\d{8}$" =FALSE
+                                    case when translate(nvl(APPLICANT_PHONE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -208,7 +208,7 @@
                                 distinct  LINKMAN_PHONE,
                                 case when LENGTH(LINKMAN_PHONE)=11             
                                     THEN 
-                                    case when LINKMAN_PHONE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9]|(19[0-9])))\d{8}$" =FALSE
+                                    case when translate(nvl(LINKMAN_PHONE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -229,7 +229,7 @@
                                 distinct  APPLICANT_MOBILE,
                                 case when LENGTH(APPLICANT_MOBILE)=11             
                                     THEN 
-                                    case when APPLICANT_MOBILE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9]|(19[0-9])))\d{8}$" =FALSE
+                                    case when translate(nvl(APPLICANT_MOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -250,7 +250,7 @@
                                 distinct  LINKMAN_MOBILE,
                                 case when LENGTH(LINKMAN_MOBILE)=11             
                                     THEN 
-                                    case when LINKMAN_MOBILE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9]|(19[0-9])))\d{8}$" =FALSE
+                                    case when translate(nvl(LINKMAN_MOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -271,7 +271,7 @@
                                 distinct  LXDH,
                                 case when LENGTH(LXDH)=11             
                                     THEN 
-                                    case when LXDH REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9]|(19[0-9])))\d{8}$" =FALSE
+                                    case when translate(nvl(LXDH,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -293,7 +293,7 @@
                                 distinct  LXDH,
                                 case when LENGTH(LXDH)=11             
                                     THEN 
-                                    case when LXDH REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9]|(19[0-9])))\d{8}$" =FALSE
+                                    case when translate(nvl(LXDH,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -315,7 +315,7 @@
                                 distinct  MOBILE,
                                 case when LENGTH(MOBILE)=11             
                                     THEN 
-                                    case when MOBILE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9]|(19[0-9])))\d{8}$" =FALSE
+                                    case when translate(nvl(MOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -337,7 +337,7 @@
                                 distinct  DRIVERMOBILE,
                                 case when LENGTH(DRIVERMOBILE)=11             
                                     THEN 
-                                    case when DRIVERMOBILE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9]|(19[0-9])))\d{8}$" =FALSE
+                                    case when translate(nvl(DRIVERMOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -359,7 +359,7 @@
                                 distinct  DRIVERPHONE,
                                 case when LENGTH(DRIVERPHONE)=11             
                                     THEN 
-                                    case when DRIVERPHONE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9]|(19[0-9])))\d{8}$" =FALSE
+                                    case when translate(nvl(DRIVERPHONE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -381,7 +381,7 @@
                                 distinct  TELEPHONE,
                                 case when LENGTH(TELEPHONE)=11             
                                     THEN 
-                                    case when TELEPHONE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9]|(19[0-9])))\d{8}$" =FALSE
+                                    case when translate(nvl(TELEPHONE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -403,7 +403,7 @@
                                 distinct  LEGALMOBILE,
                                 case when LENGTH(LEGALMOBILE)=11             
                                     THEN 
-                                    case when LEGALMOBILE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9]|(19[0-9])))\d{8}$" =FALSE
+                                    case when translate(nvl(LEGALMOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -425,7 +425,7 @@
                                 distinct  PRINCIPALMOBILE,
                                 case when LENGTH(PRINCIPALMOBILE)=11             
                                     THEN 
-                                    case when PRINCIPALMOBILE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9]|(19[0-9])))\d{8}$" =FALSE
+                                    case when translate(nvl(PRINCIPALMOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -447,7 +447,7 @@
                                 distinct  LXDH,
                                 case when LENGTH(LXDH)=11             
                                     THEN 
-                                    case when LXDH REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9]|(19[0-9])))\d{8}$" =FALSE
+                                    case when translate(nvl(LXDH,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -469,7 +469,7 @@
                                 distinct  AQFZRSJ,
                                 case when LENGTH(AQFZRSJ)=11             
                                     THEN 
-                                    case when AQFZRSJ REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9]|(19[0-9])))\d{8}$" =FALSE
+                                    case when translate(nvl(AQFZRSJ,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -491,7 +491,7 @@
                                 distinct  CONTACTPHONE,
                                 case when LENGTH(CONTACTPHONE)=11             
                                     THEN 
-                                    case when CONTACTPHONE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9]|(19[0-9])))\d{8}$" =FALSE
+                                    case when translate(nvl(CONTACTPHONE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -513,7 +513,7 @@
                                 distinct  CONTACTPHONE,
                                 case when LENGTH(CONTACTPHONE)=11             
                                     THEN 
-                                    case when CONTACTPHONE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9]|(19[0-9])))\d{8}$" =FALSE
+                                    case when translate(nvl(CONTACTPHONE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -535,7 +535,7 @@
                                 distinct  TELEPHONE,
                                 case when LENGTH(TELEPHONE)=11             
                                     THEN 
-                                    case when TELEPHONE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9]|(19[0-9])))\d{8}$" =FALSE
+                                    case when translate(nvl(TELEPHONE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -557,7 +557,7 @@
                                 distinct  TEL,
                                 case when LENGTH(TEL)=11             
                                     THEN 
-                                    case when TEL REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9]|(19[0-9])))\d{8}$" =FALSE
+                                    case when translate(nvl(TEL,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -579,7 +579,7 @@
                                 distinct  HBFZRSJ,
                                 case when LENGTH(HBFZRSJ)=11             
                                     THEN 
-                                    case when HBFZRSJ REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9]|(19[0-9])))\d{8}$" =FALSE
+                                    case when translate(nvl(HBFZRSJ,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -601,7 +601,7 @@
                                 distinct  QYFZRSJ,
                                 case when LENGTH(QYFZRSJ)=11             
                                     THEN 
-                                    case when QYFZRSJ REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9]|(19[0-9])))\d{8}$" =FALSE
+                                    case when translate(nvl(QYFZRSJ,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -623,7 +623,7 @@
                                 distinct  CUSTOMER_PHONE,
                                 case when LENGTH(CUSTOMER_PHONE)=11             
                                     THEN 
-                                    case when CUSTOMER_PHONE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9]|(19[0-9])))\d{8}$" =FALSE
+                                    case when translate(nvl(CUSTOMER_PHONE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -645,7 +645,7 @@
                                 distinct  CORPORATE_MOBILE,
                                 case when LENGTH(CORPORATE_MOBILE)=11             
                                     THEN 
-                                    case when CORPORATE_MOBILE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9]|(19[0-9])))\d{8}$" =FALSE
+                                    case when translate(nvl(CORPORATE_MOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -667,7 +667,7 @@
                                 distinct  MANAGER_MOBILE,
                                 case when LENGTH(MANAGER_MOBILE)=11             
                                     THEN 
-                                    case when MANAGER_MOBILE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9]|(19[0-9])))\d{8}$" =FALSE
+                                    case when translate(nvl(MANAGER_MOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -689,7 +689,7 @@
                                 distinct  CORPORATE_MOBILE,
                                 case when LENGTH(CORPORATE_MOBILE)=11             
                                     THEN 
-                                    case when CORPORATE_MOBILE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9]|(19[0-9])))\d{8}$" =FALSE
+                                    case when translate(nvl(CORPORATE_MOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -711,7 +711,7 @@
                                 distinct  MANAGER_MOBILE,
                                 case when LENGTH(MANAGER_MOBILE)=11             
                                     THEN 
-                                    case when MANAGER_MOBILE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9]|(19[0-9])))\d{8}$" =FALSE
+                                    case when translate(nvl(MANAGER_MOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -733,7 +733,7 @@
                                 distinct  RP_MOBILE,
                                 case when LENGTH(RP_MOBILE)=11             
                                     THEN 
-                                    case when RP_MOBILE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9]|(19[0-9])))\d{8}$" =FALSE
+                                    case when translate(nvl(RP_MOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -755,7 +755,7 @@
                                 distinct  MANAGER_MOBILE,
                                 case when LENGTH(MANAGER_MOBILE)=11             
                                     THEN 
-                                    case when MANAGER_MOBILE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9]|(19[0-9])))\d{8}$" =FALSE
+                                    case when translate(nvl(MANAGER_MOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -777,7 +777,7 @@
                                 distinct  LEGAL_MOBILE,
                                 case when LENGTH(LEGAL_MOBILE)=11             
                                     THEN 
-                                    case when LEGAL_MOBILE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9]|(19[0-9])))\d{8}$" =FALSE
+                                    case when translate(nvl(LEGAL_MOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -799,7 +799,7 @@
                                 distinct  SJH,
                                 case when LENGTH(SJH)=11             
                                     THEN 
-                                    case when SJH REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9]|(19[0-9])))\d{8}$" =FALSE
+                                    case when translate(nvl(SJH,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -821,13 +821,13 @@
                                 distinct  LXDH,
                                 case when LENGTH(LXDH)=11             
                                     THEN 
-                                    case when LXDH REGEXP "^((13[-9])|(147)|(15[-3,7-9])|(166)|(173)|(17[5-8])|(18[-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(LXDH,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(LXDH) in (1,11,12,13) and LXDH REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(LXDH,''),'0123456789-','') &lt;&gt;'' 
+                                      case when translate(nvl(LXDH,''),'0123456789-','') &lt;&gt;''
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -843,7 +843,7 @@
                                 distinct  MOBILE,
                                 case when LENGTH(MOBILE)=11             
                                     THEN 
-                                    case when MOBILE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9]|(19[0-9])))\d{8}$" =FALSE
+                                    case when translate(nvl(MOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -864,7 +864,7 @@
                                 distinct  LINKMAN_MOBILE,
                                 case when LENGTH(LINKMAN_MOBILE)=11             
                                     THEN 
-                                    case when LINKMAN_MOBILE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9]|(19[0-9])))\d{8}$" =FALSE
+                                    case when translate(nvl(LINKMAN_MOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -885,7 +885,7 @@
                                 distinct  APPLICANT_MOBILE,
                                 case when LENGTH(APPLICANT_MOBILE)=11             
                                     THEN 
-                                    case when APPLICANT_MOBILE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9]|(19[0-9])))\d{8}$" =FALSE
+                                    case when translate(nvl(APPLICANT_MOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -906,7 +906,7 @@
                                 distinct  START_PHONE,
                                 case when LENGTH(START_PHONE)=11             
                                     THEN 
-                                    case when START_PHONE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9]|(19[0-9])))\d{8}$" =FALSE
+                                    case when translate(nvl(START_PHONE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -927,7 +927,7 @@
                                 distinct  PHONENUMBER,
                                 case when LENGTH(PHONENUMBER)=11             
                                     THEN 
-                                    case when PHONENUMBER REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9]|(19[0-9])))\d{8}$" =FALSE
+                                    case when translate(nvl(PHONENUMBER,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -948,7 +948,7 @@
                                 distinct  COMPANYTEL,
                                 case when LENGTH(COMPANYTEL)=11             
                                     THEN 
-                                    case when COMPANYTEL REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9]|(19[0-9])))\d{8}$" =FALSE
+                                    case when translate(nvl(COMPANYTEL,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -969,7 +969,7 @@
                                 distinct  SJHM,
                                 case when LENGTH(SJHM)=11             
                                     THEN 
-                                    case when SJHM REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9]|(19[0-9])))\d{8}$" =FALSE
+                                    case when translate(nvl(SJHM,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -991,7 +991,7 @@
                                 distinct  LXDH,
                                 case when LENGTH(LXDH)=11             
                                     THEN 
-                                    case when LXDH REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9]|(19[0-9])))\d{8}$" =FALSE
+                                    case when translate(nvl(LXDH,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -1013,7 +1013,7 @@
                                 distinct  LXDH,
                                 case when LENGTH(LXDH)=11             
                                     THEN 
-                                    case when LXDH REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9]|(19[0-9])))\d{8}$" =FALSE
+                                    case when translate(nvl(LXDH,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -1035,7 +1035,7 @@
                                 distinct  LXDH,
                                 case when LENGTH(LXDH)=11             
                                     THEN 
-                                    case when LXDH REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9]|(19[0-9])))\d{8}$" =FALSE
+                                    case when translate(nvl(LXDH,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -1057,7 +1057,7 @@
                                 distinct  LXDH,
                                 case when LENGTH(LXDH)=11             
                                     THEN 
-                                    case when LXDH REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9]|(19[0-9])))\d{8}$" =FALSE
+                                    case when translate(nvl(LXDH,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -1175,7 +1175,7 @@
                                 distinct  PHONENUM,
                                 case when length(nvl(PHONENUM,'0'))=11             
                                     THEN 
-                                    case when nvl(PHONENUM,'0') REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(PHONENUM,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -1197,7 +1197,7 @@
                                 distinct  APPLICANT_PHONE,
                                 case when LENGTH(APPLICANT_PHONE)=11             
                                     THEN 
-                                    case when APPLICANT_PHONE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(APPLICANT_PHONE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -1218,7 +1218,7 @@
                                 distinct  LINKMAN_PHONE,
                                 case when LENGTH(LINKMAN_PHONE)=11             
                                     THEN 
-                                    case when LINKMAN_PHONE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(LINKMAN_PHONE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -1239,7 +1239,7 @@
                                 distinct  APPLICANT_MOBILE,
                                 case when LENGTH(APPLICANT_MOBILE)=11             
                                     THEN 
-                                    case when APPLICANT_MOBILE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(APPLICANT_MOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -1260,7 +1260,7 @@
                                 distinct  LINKMAN_MOBILE,
                                 case when LENGTH(LINKMAN_MOBILE)=11             
                                     THEN 
-                                    case when LINKMAN_MOBILE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(LINKMAN_MOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -1281,7 +1281,7 @@
                                 distinct  LXDH,
                                 case when LENGTH(LXDH)=11             
                                     THEN 
-                                    case when LXDH REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(LXDH,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -1303,7 +1303,7 @@
                                 distinct  LXDH,
                                 case when LENGTH(LXDH)=11             
                                     THEN 
-                                    case when LXDH REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(LXDH,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -1325,7 +1325,7 @@
                                 distinct  MOBILE,
                                 case when LENGTH(MOBILE)=11             
                                     THEN 
-                                    case when MOBILE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(MOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -1347,7 +1347,7 @@
                                 distinct  DRIVERMOBILE,
                                 case when LENGTH(DRIVERMOBILE)=11             
                                     THEN 
-                                    case when DRIVERMOBILE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(DRIVERMOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -1369,7 +1369,7 @@
                                 distinct  DRIVERPHONE,
                                 case when LENGTH(DRIVERPHONE)=11             
                                     THEN 
-                                    case when DRIVERPHONE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(DRIVERPHONE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -1391,7 +1391,7 @@
                                 distinct  TELEPHONE,
                                 case when LENGTH(TELEPHONE)=11             
                                     THEN 
-                                    case when TELEPHONE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(TELEPHONE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -1413,7 +1413,7 @@
                                 distinct  LEGALMOBILE,
                                 case when LENGTH(LEGALMOBILE)=11             
                                     THEN 
-                                    case when LEGALMOBILE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(LEGALMOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -1435,7 +1435,7 @@
                                 distinct  PRINCIPALMOBILE,
                                 case when LENGTH(PRINCIPALMOBILE)=11             
                                     THEN 
-                                    case when PRINCIPALMOBILE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(PRINCIPALMOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -1457,7 +1457,7 @@
                                 distinct  LXDH,
                                 case when LENGTH(LXDH)=11             
                                     THEN 
-                                    case when LXDH REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(LXDH,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -1479,7 +1479,7 @@
                                 distinct  AQFZRSJ,
                                 case when LENGTH(AQFZRSJ)=11             
                                     THEN 
-                                    case when AQFZRSJ REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(AQFZRSJ,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -1501,7 +1501,7 @@
                                 distinct  CONTACTPHONE,
                                 case when LENGTH(CONTACTPHONE)=11             
                                     THEN 
-                                    case when CONTACTPHONE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(CONTACTPHONE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -1523,7 +1523,7 @@
                                 distinct  CONTACTPHONE,
                                 case when LENGTH(CONTACTPHONE)=11             
                                     THEN 
-                                    case when CONTACTPHONE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(CONTACTPHONE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -1545,7 +1545,7 @@
                                 distinct  TELEPHONE,
                                 case when LENGTH(TELEPHONE)=11             
                                     THEN 
-                                    case when TELEPHONE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(TELEPHONE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -1567,7 +1567,7 @@
                                 distinct  TEL,
                                 case when LENGTH(TEL)=11             
                                     THEN 
-                                    case when TEL REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(TEL,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -1589,7 +1589,7 @@
                                 distinct  HBFZRSJ,
                                 case when LENGTH(HBFZRSJ)=11             
                                     THEN 
-                                    case when HBFZRSJ REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(HBFZRSJ,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -1611,7 +1611,7 @@
                                 distinct  QYFZRSJ,
                                 case when LENGTH(QYFZRSJ)=11             
                                     THEN 
-                                    case when QYFZRSJ REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(QYFZRSJ,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -1633,7 +1633,7 @@
                                 distinct  CUSTOMER_PHONE,
                                 case when LENGTH(CUSTOMER_PHONE)=11             
                                     THEN 
-                                    case when CUSTOMER_PHONE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(CUSTOMER_PHONE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -1655,7 +1655,7 @@
                                 distinct  CORPORATE_MOBILE,
                                 case when LENGTH(CORPORATE_MOBILE)=11             
                                     THEN 
-                                    case when CORPORATE_MOBILE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(CORPORATE_MOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -1677,7 +1677,7 @@
                                 distinct  MANAGER_MOBILE,
                                 case when LENGTH(MANAGER_MOBILE)=11             
                                     THEN 
-                                    case when MANAGER_MOBILE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(MANAGER_MOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -1699,7 +1699,7 @@
                                 distinct  CORPORATE_MOBILE,
                                 case when LENGTH(CORPORATE_MOBILE)=11             
                                     THEN 
-                                    case when CORPORATE_MOBILE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(CORPORATE_MOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -1721,7 +1721,7 @@
                                 distinct  MANAGER_MOBILE,
                                 case when LENGTH(MANAGER_MOBILE)=11             
                                     THEN 
-                                    case when MANAGER_MOBILE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(MANAGER_MOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -1743,7 +1743,7 @@
                                 distinct  RP_MOBILE,
                                 case when LENGTH(RP_MOBILE)=11             
                                     THEN 
-                                    case when RP_MOBILE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(RP_MOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -1765,7 +1765,7 @@
                                 distinct  MANAGER_MOBILE,
                                 case when LENGTH(MANAGER_MOBILE)=11             
                                     THEN 
-                                    case when MANAGER_MOBILE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(MANAGER_MOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -1787,7 +1787,7 @@
                                 distinct  LEGAL_MOBILE,
                                 case when LENGTH(LEGAL_MOBILE)=11             
                                     THEN 
-                                    case when LEGAL_MOBILE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(LEGAL_MOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -1809,7 +1809,7 @@
                                 distinct  SJH,
                                 case when LENGTH(SJH)=11             
                                     THEN 
-                                    case when SJH REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(SJH,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -1831,13 +1831,13 @@
                                 distinct  LXDH,
                                 case when LENGTH(LXDH)=11             
                                     THEN 
-                                    case when LXDH REGEXP "^((13[0-9])|(147)|(15[0-3,7-9])|(166)|(173)|(17[5-8])|(18[0-9]))\d{8}$" =FALSE
+                                    case when LXDH REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9]|(19[0-9])))\d{8}$" =FALSE
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(LXDH) in (10,11,12,13) and LXDH REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(LXDH,''),'0123456789-','') &lt;&gt;'' 
+                                      ase when LXDH REGEXP  "^((\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -1853,7 +1853,7 @@
                                 distinct  MOBILE,
                                 case when LENGTH(MOBILE)=11             
                                     THEN 
-                                    case when MOBILE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(MOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -1874,7 +1874,7 @@
                                 distinct  LINKMAN_MOBILE,
                                 case when LENGTH(LINKMAN_MOBILE)=11             
                                     THEN 
-                                    case when LINKMAN_MOBILE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(LINKMAN_MOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -1895,7 +1895,7 @@
                                 distinct  APPLICANT_MOBILE,
                                 case when LENGTH(APPLICANT_MOBILE)=11             
                                     THEN 
-                                    case when APPLICANT_MOBILE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(APPLICANT_MOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -1916,7 +1916,7 @@
                                 distinct  START_PHONE,
                                 case when LENGTH(START_PHONE)=11             
                                     THEN 
-                                    case when START_PHONE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(START_PHONE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -1937,7 +1937,7 @@
                                 distinct  PHONENUMBER,
                                 case when LENGTH(PHONENUMBER)=11             
                                     THEN 
-                                    case when PHONENUMBER REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(PHONENUMBER,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -1958,7 +1958,7 @@
                                 distinct  COMPANYTEL,
                                 case when LENGTH(COMPANYTEL)=11             
                                     THEN 
-                                    case when COMPANYTEL REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(COMPANYTEL,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -1979,7 +1979,7 @@
                                 distinct  SJHM,
                                 case when LENGTH(SJHM)=11             
                                     THEN 
-                                    case when SJHM REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(SJHM,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -2001,7 +2001,7 @@
                                 distinct  LXDH,
                                 case when LENGTH(LXDH)=11             
                                     THEN 
-                                    case when LXDH REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(LXDH,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -2023,7 +2023,7 @@
                                 distinct  LXDH,
                                 case when LENGTH(LXDH)=11             
                                     THEN 
-                                    case when LXDH REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(LXDH,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -2045,7 +2045,7 @@
                                 distinct  LXDH,
                                 case when LENGTH(LXDH)=11             
                                     THEN 
-                                    case when LXDH REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(LXDH,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
@@ -2067,7 +2067,7 @@
                                 distinct  LXDH,
                                 case when LENGTH(LXDH)=11             
                                     THEN 
-                                    case when LXDH REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(LXDH,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
